--- a/specificationV2.xlsx
+++ b/specificationV2.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mes Documents\Bureau\Cours\webdev\projet_LEASEN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mes Documents\GitHub\leasen\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>sans etres connecte j’ai accès a une page de creation de compte</t>
   </si>
@@ -186,12 +186,15 @@
   </si>
   <si>
     <t>FONCTION UNE FOIS CONNECTE</t>
+  </si>
+  <si>
+    <t>Test de pull</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00&quot; &quot;[$€-40C];[Red]&quot;-&quot;#,##0.00&quot; &quot;[$€-40C]"/>
   </numFmts>
@@ -578,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -842,13 +845,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:2">
       <c r="A49" s="3"/>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:2">
       <c r="A50" s="3"/>
-    </row>
-    <row r="51" spans="1:1">
+      <c r="B50" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
       <c r="A51" s="3"/>
     </row>
   </sheetData>

--- a/specificationV2.xlsx
+++ b/specificationV2.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mes Documents\GitHub\leasen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mes Documents\Bureau\Cours\webdev\projet_LEASEN\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="68">
   <si>
     <t>sans etres connecte j’ai accès a une page de creation de compte</t>
   </si>
@@ -108,24 +108,6 @@
   </si>
   <si>
     <t>possibilité de contacter les administateur (mail)</t>
-  </si>
-  <si>
-    <t>tache</t>
-  </si>
-  <si>
-    <t>creation repository</t>
-  </si>
-  <si>
-    <t>yanis</t>
-  </si>
-  <si>
-    <t>creation MCD</t>
-  </si>
-  <si>
-    <t>william</t>
-  </si>
-  <si>
-    <t>reflexion aspect du site</t>
   </si>
   <si>
     <t>J’ai accès a une page ou je peux modifier mon mot de passe et mon numero de téléphone</t>
@@ -188,17 +170,74 @@
     <t>FONCTION UNE FOIS CONNECTE</t>
   </si>
   <si>
-    <t>Test de pull</t>
+    <t>Durée</t>
+  </si>
+  <si>
+    <t>Répartition</t>
+  </si>
+  <si>
+    <t>2h</t>
+  </si>
+  <si>
+    <t>Lié à la BDD (connexion-déconnexion)</t>
+  </si>
+  <si>
+    <t>A faire</t>
+  </si>
+  <si>
+    <t>10h</t>
+  </si>
+  <si>
+    <t>Aspect graphique du site</t>
+  </si>
+  <si>
+    <t>5h</t>
+  </si>
+  <si>
+    <t>6h</t>
+  </si>
+  <si>
+    <t>Lié à la BDD (les produits affichages)</t>
+  </si>
+  <si>
+    <t>Gestion du compte</t>
+  </si>
+  <si>
+    <t>Coté admin</t>
+  </si>
+  <si>
+    <t>Thomas</t>
+  </si>
+  <si>
+    <t>Gestion BDD</t>
+  </si>
+  <si>
+    <t>8h</t>
+  </si>
+  <si>
+    <t>Billaud</t>
+  </si>
+  <si>
+    <t>Marion/Yanis</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>Verification</t>
+  </si>
+  <si>
+    <t>Vérification x2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00&quot; &quot;[$€-40C];[Red]&quot;-&quot;#,##0.00&quot; &quot;[$€-40C]"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,6 +256,10 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Liberation Sans"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Liberation Sans"/>
     </font>
   </fonts>
@@ -254,13 +297,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Heading" xfId="1"/>
@@ -579,102 +626,119 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="48.625" customWidth="1"/>
     <col min="2" max="2" width="111.875" customWidth="1"/>
+    <col min="3" max="3" width="28.875" customWidth="1"/>
+    <col min="4" max="4" width="23.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>31</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1"/>
       <c r="B3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1"/>
       <c r="B4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:4">
       <c r="A10" s="1"/>
       <c r="B10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:4">
       <c r="A11" s="1"/>
       <c r="B11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1"/>
       <c r="B12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:4">
       <c r="A15" s="1"/>
       <c r="B15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:4">
       <c r="A16" s="1"/>
       <c r="B16" t="s">
         <v>8</v>
@@ -696,11 +760,11 @@
       <c r="A19" s="3"/>
     </row>
     <row r="21" spans="1:2" ht="42.75">
-      <c r="A21" s="1" t="s">
-        <v>50</v>
+      <c r="A21" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -711,7 +775,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B24" t="s">
         <v>10</v>
@@ -725,10 +789,10 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -740,12 +804,12 @@
     <row r="29" spans="1:2">
       <c r="A29" s="1"/>
       <c r="B29" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B31" t="s">
         <v>20</v>
@@ -795,7 +859,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B40" t="s">
         <v>28</v>
@@ -809,10 +873,10 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -830,7 +894,7 @@
     <row r="46" spans="1:2" ht="28.5">
       <c r="A46" s="1"/>
       <c r="B46" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -845,20 +909,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:1">
       <c r="A49" s="3"/>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:1">
       <c r="A50" s="3"/>
-      <c r="B50" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+    </row>
+    <row r="51" spans="1:1">
       <c r="A51" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157477" bottom="0.39370078740157477" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -868,41 +930,137 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="1" max="1" width="36.375" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="5" max="5" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3">
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
       <c r="B2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3">
+        <v>60</v>
+      </c>
+      <c r="D3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3">
+        <v>64</v>
+      </c>
+      <c r="D4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>53</v>
+      </c>
+      <c r="C5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
